--- a/Code/Results/Cases/Case_3_67/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_67/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.84062256158179</v>
+        <v>14.84187548871015</v>
       </c>
       <c r="C2">
-        <v>6.729782707082012</v>
+        <v>8.925680154868447</v>
       </c>
       <c r="D2">
-        <v>4.744515737848814</v>
+        <v>6.204353910365369</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>24.64274704560392</v>
+        <v>31.14566759223453</v>
       </c>
       <c r="G2">
-        <v>34.2638175784767</v>
+        <v>40.74255314430381</v>
       </c>
       <c r="H2">
-        <v>11.40709390744507</v>
+        <v>17.18685757625622</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.05208366732148</v>
+        <v>10.79395292186509</v>
       </c>
       <c r="L2">
-        <v>8.091740604072681</v>
+        <v>10.79280397497298</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.48214280077598</v>
+        <v>20.56206914240566</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.8665628046487</v>
+        <v>14.60693785875613</v>
       </c>
       <c r="C3">
-        <v>6.695450941912353</v>
+        <v>8.915190186543249</v>
       </c>
       <c r="D3">
-        <v>4.718869715477346</v>
+        <v>6.191737039343295</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>24.0292264369139</v>
+        <v>31.11291363922697</v>
       </c>
       <c r="G3">
-        <v>33.34382728070467</v>
+        <v>40.66796731271003</v>
       </c>
       <c r="H3">
-        <v>11.35598420178668</v>
+        <v>17.21944112290621</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.27364230376654</v>
+        <v>10.63363062840116</v>
       </c>
       <c r="L3">
-        <v>7.808812677963171</v>
+        <v>10.76875351809058</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.69304308375294</v>
+        <v>20.62376452128861</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.24307805185048</v>
+        <v>14.46456576195212</v>
       </c>
       <c r="C4">
-        <v>6.674446575552063</v>
+        <v>8.908679823197051</v>
       </c>
       <c r="D4">
-        <v>4.702777027311356</v>
+        <v>6.183792707589295</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>23.66600825371847</v>
+        <v>31.10045249013235</v>
       </c>
       <c r="G4">
-        <v>32.79968702117056</v>
+        <v>40.63339783930886</v>
       </c>
       <c r="H4">
-        <v>11.33218311013954</v>
+        <v>17.24234776796768</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.76955797078785</v>
+        <v>10.53655150018425</v>
       </c>
       <c r="L4">
-        <v>7.63516351838322</v>
+        <v>10.75618725647132</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.82595699088782</v>
+        <v>20.66351643233888</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.98278433043348</v>
+        <v>14.40709949539428</v>
       </c>
       <c r="C5">
-        <v>6.66590499827341</v>
+        <v>8.906009644647501</v>
       </c>
       <c r="D5">
-        <v>4.696136024283272</v>
+        <v>6.180506079593889</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>23.52148415055259</v>
+        <v>31.09730112725395</v>
       </c>
       <c r="G5">
-        <v>32.58330511737704</v>
+        <v>40.62214026960328</v>
       </c>
       <c r="H5">
-        <v>11.32432887932009</v>
+        <v>17.25241085408757</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.55754915177568</v>
+        <v>10.49738417605723</v>
       </c>
       <c r="L5">
-        <v>7.564512959031745</v>
+        <v>10.7516233789008</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.88099208307021</v>
+        <v>20.68018710149367</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.93919310427799</v>
+        <v>14.39759286378525</v>
       </c>
       <c r="C6">
-        <v>6.664487727256933</v>
+        <v>8.905565236861165</v>
       </c>
       <c r="D6">
-        <v>4.695028385228504</v>
+        <v>6.179957375369755</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>23.49769958870093</v>
+        <v>31.09689426957456</v>
       </c>
       <c r="G6">
-        <v>32.54770278516443</v>
+        <v>40.62044201112413</v>
       </c>
       <c r="H6">
-        <v>11.32313430772754</v>
+        <v>17.25412579161756</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.52194670561979</v>
+        <v>10.49090571245825</v>
       </c>
       <c r="L6">
-        <v>7.552791231212905</v>
+        <v>10.75089928483071</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.89018360400256</v>
+        <v>20.68298375810575</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.23959255805613</v>
+        <v>14.46378841519193</v>
       </c>
       <c r="C7">
-        <v>6.674331309788721</v>
+        <v>8.908643881262579</v>
       </c>
       <c r="D7">
-        <v>4.702687795768387</v>
+        <v>6.183748581834224</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>23.66404489338968</v>
+        <v>31.10040218598258</v>
       </c>
       <c r="G7">
-        <v>32.7967469346428</v>
+        <v>40.63323455142858</v>
       </c>
       <c r="H7">
-        <v>11.33206979692733</v>
+        <v>17.24248053403745</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.76672545405101</v>
+        <v>10.53602161634684</v>
       </c>
       <c r="L7">
-        <v>7.634210111859536</v>
+        <v>10.75612344690957</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.82669566879709</v>
+        <v>20.66373934859674</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.51012810104749</v>
+        <v>14.76052596927824</v>
       </c>
       <c r="C8">
-        <v>6.717928699296973</v>
+        <v>8.922077823798457</v>
       </c>
       <c r="D8">
-        <v>4.735747115900633</v>
+        <v>6.200044858089681</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>24.42846725994472</v>
+        <v>31.13278855299655</v>
       </c>
       <c r="G8">
-        <v>33.94239055162042</v>
+        <v>40.71451080277586</v>
       </c>
       <c r="H8">
-        <v>11.38786139663025</v>
+        <v>17.19748996324197</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.78908168809375</v>
+        <v>10.73842258672073</v>
       </c>
       <c r="L8">
-        <v>7.9942274071103</v>
+        <v>10.78405688197884</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.55415820028307</v>
+        <v>20.58295407376732</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.90138648461206</v>
+        <v>15.35388871194699</v>
       </c>
       <c r="C9">
-        <v>6.804089961086864</v>
+        <v>8.947857315601032</v>
       </c>
       <c r="D9">
-        <v>4.797660806747534</v>
+        <v>6.23041706769108</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>26.0300223934956</v>
+        <v>31.25679932803057</v>
       </c>
       <c r="G9">
-        <v>36.34697134001161</v>
+        <v>40.96254563384804</v>
       </c>
       <c r="H9">
-        <v>11.56011080711338</v>
+        <v>17.13231061184141</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.58812321345207</v>
+        <v>11.14384850105221</v>
       </c>
       <c r="L9">
-        <v>8.697015509049123</v>
+        <v>10.85611907876538</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>13.04634584632705</v>
+        <v>20.43932919709253</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.58285288411744</v>
+        <v>15.79222920875968</v>
       </c>
       <c r="C10">
-        <v>6.867924888868568</v>
+        <v>8.966437067224206</v>
       </c>
       <c r="D10">
-        <v>4.841140925902327</v>
+        <v>6.251743373872209</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>27.26343450702632</v>
+        <v>31.38443435710543</v>
       </c>
       <c r="G10">
-        <v>38.20156571052577</v>
+        <v>41.19806741823677</v>
       </c>
       <c r="H10">
-        <v>11.72860592905026</v>
+        <v>17.0985176773932</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.78692104020334</v>
+        <v>11.44388668913246</v>
       </c>
       <c r="L10">
-        <v>9.207065872009267</v>
+        <v>10.91933218112379</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.68883437802947</v>
+        <v>20.34275838429203</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.31133235738066</v>
+        <v>15.99121757978611</v>
       </c>
       <c r="C11">
-        <v>6.897117149282041</v>
+        <v>8.974807768416934</v>
       </c>
       <c r="D11">
-        <v>4.860435330127087</v>
+        <v>6.261226107537859</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>27.83581062517549</v>
+        <v>31.45032082435332</v>
       </c>
       <c r="G11">
-        <v>39.06286955727803</v>
+        <v>41.31656304190921</v>
       </c>
       <c r="H11">
-        <v>11.81513078839651</v>
+        <v>17.08621232485908</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.30624975172014</v>
+        <v>11.58022770311338</v>
       </c>
       <c r="L11">
-        <v>9.437030012229933</v>
+        <v>10.9502521953933</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.52945665319497</v>
+        <v>20.30075475350751</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.58204147211585</v>
+        <v>16.06643387856702</v>
       </c>
       <c r="C12">
-        <v>6.908197188830391</v>
+        <v>8.977965514397093</v>
       </c>
       <c r="D12">
-        <v>4.867667616700733</v>
+        <v>6.264785105801959</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>28.05410636352129</v>
+        <v>31.47638368128206</v>
       </c>
       <c r="G12">
-        <v>39.39146223477313</v>
+        <v>41.36304396414802</v>
       </c>
       <c r="H12">
-        <v>11.8493775155415</v>
+        <v>17.08199407212559</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.49922668859242</v>
+        <v>11.63178474255671</v>
       </c>
       <c r="L12">
-        <v>9.523770622245097</v>
+        <v>10.96226556777566</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.4695657434881</v>
+        <v>20.28512512267212</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.52396699906901</v>
+        <v>16.05024195298142</v>
       </c>
       <c r="C13">
-        <v>6.905809704190127</v>
+        <v>8.977285979334082</v>
       </c>
       <c r="D13">
-        <v>4.866113379463029</v>
+        <v>6.264020038172897</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>28.00702455240582</v>
+        <v>31.47072128298668</v>
       </c>
       <c r="G13">
-        <v>39.32058688588116</v>
+        <v>41.35296230282277</v>
       </c>
       <c r="H13">
-        <v>11.84193499173269</v>
+        <v>17.08288290577871</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.45782839601432</v>
+        <v>11.62068502421049</v>
       </c>
       <c r="L13">
-        <v>9.505105289961183</v>
+        <v>10.95966483340878</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.48244385212388</v>
+        <v>20.28847897123588</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.33370644748478</v>
+        <v>15.99740882977879</v>
       </c>
       <c r="C14">
-        <v>6.898028176034347</v>
+        <v>8.975067801802467</v>
       </c>
       <c r="D14">
-        <v>4.861031844676508</v>
+        <v>6.261519550543484</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>27.85373925728079</v>
+        <v>31.45244279819546</v>
       </c>
       <c r="G14">
-        <v>39.0898547336918</v>
+        <v>41.32035495010965</v>
       </c>
       <c r="H14">
-        <v>11.81791823984146</v>
+        <v>17.08585643583505</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.32219950825517</v>
+        <v>11.58447106816188</v>
       </c>
       <c r="L14">
-        <v>9.444173286579773</v>
+        <v>10.95123447654437</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.52452016138794</v>
+        <v>20.29946336309975</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.21649838913341</v>
+        <v>15.96502704389648</v>
       </c>
       <c r="C15">
-        <v>6.893265209743779</v>
+        <v>8.973707523049391</v>
       </c>
       <c r="D15">
-        <v>4.857909479363792</v>
+        <v>6.2599837608952</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>27.76004745773655</v>
+        <v>31.44139126940114</v>
       </c>
       <c r="G15">
-        <v>38.94883932461784</v>
+        <v>41.30059082003645</v>
       </c>
       <c r="H15">
-        <v>11.80340206833706</v>
+        <v>17.08773531884295</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.23864528751418</v>
+        <v>11.56227806613348</v>
       </c>
       <c r="L15">
-        <v>9.406804996931619</v>
+        <v>10.94611010988777</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.55035313001737</v>
+        <v>20.30622756882115</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.53451937345637</v>
+        <v>15.77920988807991</v>
       </c>
       <c r="C16">
-        <v>6.866020477882068</v>
+        <v>8.96588835483605</v>
       </c>
       <c r="D16">
-        <v>4.83986986267986</v>
+        <v>6.251119214803215</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>27.22624883302552</v>
+        <v>31.38028497496848</v>
       </c>
       <c r="G16">
-        <v>38.1456231451147</v>
+        <v>41.19054998917713</v>
       </c>
       <c r="H16">
-        <v>11.72315530714603</v>
+        <v>17.09938362306964</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.75246317886721</v>
+        <v>11.43496910331299</v>
       </c>
       <c r="L16">
-        <v>9.191991570387263</v>
+        <v>10.91735448158571</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.69931502670663</v>
+        <v>20.34554212127617</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.10687760174454</v>
+        <v>15.66505542057061</v>
       </c>
       <c r="C17">
-        <v>6.849348303707329</v>
+        <v>8.961070462400265</v>
       </c>
       <c r="D17">
-        <v>4.82867586507891</v>
+        <v>6.245624760135125</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>26.90161424952755</v>
+        <v>31.34479421069919</v>
       </c>
       <c r="G17">
-        <v>37.65731319980807</v>
+        <v>41.12593594198621</v>
       </c>
       <c r="H17">
-        <v>11.67649967388415</v>
+        <v>17.1073154311699</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.44758427238488</v>
+        <v>11.35679444416322</v>
       </c>
       <c r="L17">
-        <v>9.059646891293573</v>
+        <v>10.9002635791016</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.79152720249797</v>
+        <v>20.37015324087101</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.85747487073259</v>
+        <v>15.59936215387493</v>
       </c>
       <c r="C18">
-        <v>6.839773105400919</v>
+        <v>8.95829170561473</v>
       </c>
       <c r="D18">
-        <v>4.822191994787572</v>
+        <v>6.242443936247795</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>26.71595924198675</v>
+        <v>31.32511817798564</v>
       </c>
       <c r="G18">
-        <v>37.3781149934604</v>
+        <v>41.08984208950569</v>
       </c>
       <c r="H18">
-        <v>11.6505904582052</v>
+        <v>17.11216627920531</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.26977389823855</v>
+        <v>11.31181948965368</v>
       </c>
       <c r="L18">
-        <v>8.983333833557746</v>
+        <v>10.89063745631911</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.84487194369603</v>
+        <v>20.38449032635722</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.77243894926216</v>
+        <v>15.57711597389454</v>
       </c>
       <c r="C19">
-        <v>6.836533449658468</v>
+        <v>8.957349566455886</v>
       </c>
       <c r="D19">
-        <v>4.819989005443452</v>
+        <v>6.241363446900599</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>26.6532853157094</v>
+        <v>31.31858318937489</v>
       </c>
       <c r="G19">
-        <v>37.28387274356938</v>
+        <v>41.07780585770463</v>
       </c>
       <c r="H19">
-        <v>11.64197518753577</v>
+        <v>17.11385825860028</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.20914751613938</v>
+        <v>11.29659144419809</v>
       </c>
       <c r="L19">
-        <v>8.957464152863908</v>
+        <v>10.88741346549656</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.86298646188043</v>
+        <v>20.38937580268579</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.15275564068535</v>
+        <v>15.67721150718644</v>
       </c>
       <c r="C20">
-        <v>6.851121592661732</v>
+        <v>8.961584127835099</v>
       </c>
       <c r="D20">
-        <v>4.829872213106333</v>
+        <v>6.246211785289067</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>26.93606239960383</v>
+        <v>31.34849603634611</v>
       </c>
       <c r="G20">
-        <v>37.70912315452934</v>
+        <v>41.13270359428017</v>
       </c>
       <c r="H20">
-        <v>11.68136997610866</v>
+        <v>17.10644119547385</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.48029252732292</v>
+        <v>11.36511777954559</v>
       </c>
       <c r="L20">
-        <v>9.073755434074362</v>
+        <v>10.90206185607907</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.78167936467375</v>
+        <v>20.36751457507101</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.38972962170891</v>
+        <v>16.01293149361258</v>
       </c>
       <c r="C21">
-        <v>6.900313074466722</v>
+        <v>8.975719664435628</v>
       </c>
       <c r="D21">
-        <v>4.86252646033719</v>
+        <v>6.262254873952831</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>27.89872131814769</v>
+        <v>31.4577815275293</v>
       </c>
       <c r="G21">
-        <v>39.15756091490157</v>
+        <v>41.32988904928153</v>
       </c>
       <c r="H21">
-        <v>11.82493183943222</v>
+        <v>17.08497105230607</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.36213642112421</v>
+        <v>11.59511034689228</v>
       </c>
       <c r="L21">
-        <v>9.462080078046268</v>
+        <v>10.95370246343111</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.51214883054491</v>
+        <v>20.29622949080149</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.16819013899202</v>
+        <v>16.23151614153889</v>
       </c>
       <c r="C22">
-        <v>6.932613679799362</v>
+        <v>8.984887608326362</v>
       </c>
       <c r="D22">
-        <v>4.883433996792957</v>
+        <v>6.272553770236948</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>28.53688432054219</v>
+        <v>31.53568712096689</v>
       </c>
       <c r="G22">
-        <v>40.11837074778584</v>
+        <v>41.46812789862395</v>
       </c>
       <c r="H22">
-        <v>11.92742274617311</v>
+        <v>17.07351269743915</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.91704465406723</v>
+        <v>11.74497967223779</v>
       </c>
       <c r="L22">
-        <v>9.713867001887754</v>
+        <v>10.98922488254108</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.3386865531847</v>
+        <v>20.25125027768821</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.75542267856562</v>
+        <v>16.11495369298503</v>
       </c>
       <c r="C23">
-        <v>6.915359075597827</v>
+        <v>8.980001070359419</v>
       </c>
       <c r="D23">
-        <v>4.872316411077299</v>
+        <v>6.267074242137349</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>28.19548001404051</v>
+        <v>31.49351879877965</v>
       </c>
       <c r="G23">
-        <v>39.60429708849878</v>
+        <v>41.39349869852795</v>
       </c>
       <c r="H23">
-        <v>11.87190817431871</v>
+        <v>17.07939263160949</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.62281944792189</v>
+        <v>11.66504865222546</v>
       </c>
       <c r="L23">
-        <v>9.579679286265605</v>
+        <v>10.97010601064638</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.43102183570833</v>
+        <v>20.27510951975506</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.13202523016807</v>
+        <v>15.67171593495422</v>
       </c>
       <c r="C24">
-        <v>6.850319858279519</v>
+        <v>8.961351927349389</v>
       </c>
       <c r="D24">
-        <v>4.829331494253348</v>
+        <v>6.245946459655029</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>26.92048532717101</v>
+        <v>31.34682017208896</v>
       </c>
       <c r="G24">
-        <v>37.6856950763793</v>
+        <v>41.12964065485961</v>
       </c>
       <c r="H24">
-        <v>11.67916527106451</v>
+        <v>17.10683553176984</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.46551301447639</v>
+        <v>11.36135489319101</v>
       </c>
       <c r="L24">
-        <v>9.067377663289268</v>
+        <v>10.90124823263696</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.78613054149253</v>
+        <v>20.36870693070652</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.24932402324504</v>
+        <v>15.192620054445</v>
       </c>
       <c r="C25">
-        <v>6.780698154956316</v>
+        <v>8.940945386051881</v>
       </c>
       <c r="D25">
-        <v>4.781247337898317</v>
+        <v>6.22237252206478</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>25.58639561735237</v>
+        <v>31.21680483628908</v>
       </c>
       <c r="G25">
-        <v>35.68045091514254</v>
+        <v>40.88602109189537</v>
       </c>
       <c r="H25">
-        <v>11.50640662308469</v>
+        <v>17.14747102295115</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.12323218938441</v>
+        <v>11.0335724448885</v>
       </c>
       <c r="L25">
-        <v>8.507721532414372</v>
+        <v>10.8347996427775</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.18094259661196</v>
+        <v>20.47660683434466</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_67/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_67/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.84187548871015</v>
+        <v>15.84062256158179</v>
       </c>
       <c r="C2">
-        <v>8.925680154868447</v>
+        <v>6.729782707082009</v>
       </c>
       <c r="D2">
-        <v>6.204353910365369</v>
+        <v>4.744515737848758</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>31.14566759223453</v>
+        <v>24.64274704560374</v>
       </c>
       <c r="G2">
-        <v>40.74255314430381</v>
+        <v>34.26381757847644</v>
       </c>
       <c r="H2">
-        <v>17.18685757625622</v>
+        <v>11.40709390744489</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.79395292186509</v>
+        <v>12.05208366732153</v>
       </c>
       <c r="L2">
-        <v>10.79280397497298</v>
+        <v>8.091740604072639</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>20.56206914240566</v>
+        <v>13.48214280077582</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.60693785875613</v>
+        <v>14.86656280464869</v>
       </c>
       <c r="C3">
-        <v>8.915190186543249</v>
+        <v>6.695450941912888</v>
       </c>
       <c r="D3">
-        <v>6.191737039343295</v>
+        <v>4.718869715477148</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>31.11291363922697</v>
+        <v>24.02922643691389</v>
       </c>
       <c r="G3">
-        <v>40.66796731271003</v>
+        <v>33.34382728070462</v>
       </c>
       <c r="H3">
-        <v>17.21944112290621</v>
+        <v>11.35598420178668</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.63363062840116</v>
+        <v>11.2736423037666</v>
       </c>
       <c r="L3">
-        <v>10.76875351809058</v>
+        <v>7.808812677963135</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>20.62376452128861</v>
+        <v>13.69304308375295</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.46456576195212</v>
+        <v>14.24307805185048</v>
       </c>
       <c r="C4">
-        <v>8.908679823197051</v>
+        <v>6.674446575552076</v>
       </c>
       <c r="D4">
-        <v>6.183792707589295</v>
+        <v>4.702777027311352</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>31.10045249013235</v>
+        <v>23.66600825371853</v>
       </c>
       <c r="G4">
-        <v>40.63339783930886</v>
+        <v>32.79968702117058</v>
       </c>
       <c r="H4">
-        <v>17.24234776796768</v>
+        <v>11.3321831101396</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.53655150018425</v>
+        <v>10.76955797078782</v>
       </c>
       <c r="L4">
-        <v>10.75618725647132</v>
+        <v>7.635163518383224</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>20.66351643233888</v>
+        <v>13.82595699088782</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.40709949539428</v>
+        <v>13.98278433043348</v>
       </c>
       <c r="C5">
-        <v>8.906009644647501</v>
+        <v>6.665904998273668</v>
       </c>
       <c r="D5">
-        <v>6.180506079593889</v>
+        <v>4.69613602428315</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>31.09730112725395</v>
+        <v>23.52148415055253</v>
       </c>
       <c r="G5">
-        <v>40.62214026960328</v>
+        <v>32.58330511737702</v>
       </c>
       <c r="H5">
-        <v>17.25241085408757</v>
+        <v>11.32432887932003</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.49738417605723</v>
+        <v>10.55754915177571</v>
       </c>
       <c r="L5">
-        <v>10.7516233789008</v>
+        <v>7.564512959031783</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>20.68018710149367</v>
+        <v>13.88099208307018</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.39759286378525</v>
+        <v>13.93919310427798</v>
       </c>
       <c r="C6">
-        <v>8.905565236861165</v>
+        <v>6.664487727256536</v>
       </c>
       <c r="D6">
-        <v>6.179957375369755</v>
+        <v>4.695028385228496</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>31.09689426957456</v>
+        <v>23.49769958870084</v>
       </c>
       <c r="G6">
-        <v>40.62044201112413</v>
+        <v>32.54770278516426</v>
       </c>
       <c r="H6">
-        <v>17.25412579161756</v>
+        <v>11.32313430772755</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.49090571245825</v>
+        <v>10.5219467056198</v>
       </c>
       <c r="L6">
-        <v>10.75089928483071</v>
+        <v>7.552791231212964</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>20.68298375810575</v>
+        <v>13.89018360400244</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.46378841519193</v>
+        <v>14.23959255805606</v>
       </c>
       <c r="C7">
-        <v>8.908643881262579</v>
+        <v>6.674331309788191</v>
       </c>
       <c r="D7">
-        <v>6.183748581834224</v>
+        <v>4.702687795768514</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>31.10040218598258</v>
+        <v>23.66404489338932</v>
       </c>
       <c r="G7">
-        <v>40.63323455142858</v>
+        <v>32.79674693464261</v>
       </c>
       <c r="H7">
-        <v>17.24248053403745</v>
+        <v>11.33206979692713</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.53602161634684</v>
+        <v>10.76672545405109</v>
       </c>
       <c r="L7">
-        <v>10.75612344690957</v>
+        <v>7.634210111859605</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>20.66373934859674</v>
+        <v>13.826695668797</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.76052596927824</v>
+        <v>15.51012810104749</v>
       </c>
       <c r="C8">
-        <v>8.922077823798457</v>
+        <v>6.717928699296436</v>
       </c>
       <c r="D8">
-        <v>6.200044858089681</v>
+        <v>4.735747115900702</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>31.13278855299655</v>
+        <v>24.42846725994481</v>
       </c>
       <c r="G8">
-        <v>40.71451080277586</v>
+        <v>33.94239055162056</v>
       </c>
       <c r="H8">
-        <v>17.19748996324197</v>
+        <v>11.38786139663026</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.73842258672073</v>
+        <v>11.78908168809373</v>
       </c>
       <c r="L8">
-        <v>10.78405688197884</v>
+        <v>7.994227407110293</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>20.58295407376732</v>
+        <v>13.55415820028308</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.35388871194699</v>
+        <v>17.90138648461205</v>
       </c>
       <c r="C9">
-        <v>8.947857315601032</v>
+        <v>6.804089961087125</v>
       </c>
       <c r="D9">
-        <v>6.23041706769108</v>
+        <v>4.797660806747338</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>31.25679932803057</v>
+        <v>26.03002239349553</v>
       </c>
       <c r="G9">
-        <v>40.96254563384804</v>
+        <v>36.34697134001142</v>
       </c>
       <c r="H9">
-        <v>17.13231061184141</v>
+        <v>11.56011080711336</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.14384850105221</v>
+        <v>13.5881232134521</v>
       </c>
       <c r="L9">
-        <v>10.85611907876538</v>
+        <v>8.697015509049097</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.43932919709253</v>
+        <v>13.04634584632699</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.79222920875968</v>
+        <v>19.58285288411743</v>
       </c>
       <c r="C10">
-        <v>8.966437067224206</v>
+        <v>6.867924888868572</v>
       </c>
       <c r="D10">
-        <v>6.251743373872209</v>
+        <v>4.841140925902336</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>31.38443435710543</v>
+        <v>27.26343450702629</v>
       </c>
       <c r="G10">
-        <v>41.19806741823677</v>
+        <v>38.20156571052574</v>
       </c>
       <c r="H10">
-        <v>17.0985176773932</v>
+        <v>11.72860592905024</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.44388668913246</v>
+        <v>14.78692104020334</v>
       </c>
       <c r="L10">
-        <v>10.91933218112379</v>
+        <v>9.207065872009233</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>20.34275838429203</v>
+        <v>12.68883437802938</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.99121757978611</v>
+        <v>20.31133235738069</v>
       </c>
       <c r="C11">
-        <v>8.974807768416934</v>
+        <v>6.897117149281643</v>
       </c>
       <c r="D11">
-        <v>6.261226107537859</v>
+        <v>4.860435330127076</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>31.45032082435332</v>
+        <v>27.83581062517556</v>
       </c>
       <c r="G11">
-        <v>41.31656304190921</v>
+        <v>39.06286955727817</v>
       </c>
       <c r="H11">
-        <v>17.08621232485908</v>
+        <v>11.81513078839651</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.58022770311338</v>
+        <v>15.30624975172014</v>
       </c>
       <c r="L11">
-        <v>10.9502521953933</v>
+        <v>9.437030012229975</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>20.30075475350751</v>
+        <v>12.52945665319504</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.06643387856702</v>
+        <v>20.58204147211583</v>
       </c>
       <c r="C12">
-        <v>8.977965514397093</v>
+        <v>6.908197188830914</v>
       </c>
       <c r="D12">
-        <v>6.264785105801959</v>
+        <v>4.867667616700692</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>31.47638368128206</v>
+        <v>28.05410636352122</v>
       </c>
       <c r="G12">
-        <v>41.36304396414802</v>
+        <v>39.39146223477302</v>
       </c>
       <c r="H12">
-        <v>17.08199407212559</v>
+        <v>11.8493775155415</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.63178474255671</v>
+        <v>15.49922668859243</v>
       </c>
       <c r="L12">
-        <v>10.96226556777566</v>
+        <v>9.523770622245062</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>20.28512512267212</v>
+        <v>12.46956574348807</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.05024195298142</v>
+        <v>20.52396699906908</v>
       </c>
       <c r="C13">
-        <v>8.977285979334082</v>
+        <v>6.905809704189991</v>
       </c>
       <c r="D13">
-        <v>6.264020038172897</v>
+        <v>4.866113379462851</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>31.47072128298668</v>
+        <v>28.00702455240585</v>
       </c>
       <c r="G13">
-        <v>41.35296230282277</v>
+        <v>39.32058688588116</v>
       </c>
       <c r="H13">
-        <v>17.08288290577871</v>
+        <v>11.84193499173273</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.62068502421049</v>
+        <v>15.45782839601434</v>
       </c>
       <c r="L13">
-        <v>10.95966483340878</v>
+        <v>9.505105289961172</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>20.28847897123588</v>
+        <v>12.48244385212395</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.99740882977879</v>
+        <v>20.33370644748477</v>
       </c>
       <c r="C14">
-        <v>8.975067801802467</v>
+        <v>6.898028176034218</v>
       </c>
       <c r="D14">
-        <v>6.261519550543484</v>
+        <v>4.861031844676384</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>31.45244279819546</v>
+        <v>27.85373925728081</v>
       </c>
       <c r="G14">
-        <v>41.32035495010965</v>
+        <v>39.08985473369179</v>
       </c>
       <c r="H14">
-        <v>17.08585643583505</v>
+        <v>11.81791823984145</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.58447106816188</v>
+        <v>15.3221995082552</v>
       </c>
       <c r="L14">
-        <v>10.95123447654437</v>
+        <v>9.444173286579751</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>20.29946336309975</v>
+        <v>12.52452016138791</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.96502704389648</v>
+        <v>20.21649838913343</v>
       </c>
       <c r="C15">
-        <v>8.973707523049391</v>
+        <v>6.893265209743651</v>
       </c>
       <c r="D15">
-        <v>6.2599837608952</v>
+        <v>4.857909479363792</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>31.44139126940114</v>
+        <v>27.76004745773648</v>
       </c>
       <c r="G15">
-        <v>41.30059082003645</v>
+        <v>38.94883932461772</v>
       </c>
       <c r="H15">
-        <v>17.08773531884295</v>
+        <v>11.80340206833699</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.56227806613348</v>
+        <v>15.23864528751419</v>
       </c>
       <c r="L15">
-        <v>10.94611010988777</v>
+        <v>9.406804996931635</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>20.30622756882115</v>
+        <v>12.55035313001731</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.77920988807991</v>
+        <v>19.53451937345643</v>
       </c>
       <c r="C16">
-        <v>8.96588835483605</v>
+        <v>6.866020477882078</v>
       </c>
       <c r="D16">
-        <v>6.251119214803215</v>
+        <v>4.839869862679986</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>31.38028497496848</v>
+        <v>27.22624883302539</v>
       </c>
       <c r="G16">
-        <v>41.19054998917713</v>
+        <v>38.14562314511458</v>
       </c>
       <c r="H16">
-        <v>17.09938362306964</v>
+        <v>11.723155307146</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.43496910331299</v>
+        <v>14.75246317886728</v>
       </c>
       <c r="L16">
-        <v>10.91735448158571</v>
+        <v>9.191991570387245</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>20.34554212127617</v>
+        <v>12.69931502670651</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.66505542057061</v>
+        <v>19.10687760174446</v>
       </c>
       <c r="C17">
-        <v>8.961070462400265</v>
+        <v>6.849348303707581</v>
       </c>
       <c r="D17">
-        <v>6.245624760135125</v>
+        <v>4.828675865079026</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>31.34479421069919</v>
+        <v>26.90161424952771</v>
       </c>
       <c r="G17">
-        <v>41.12593594198621</v>
+        <v>37.65731319980833</v>
       </c>
       <c r="H17">
-        <v>17.1073154311699</v>
+        <v>11.67649967388426</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.35679444416322</v>
+        <v>14.4475842723848</v>
       </c>
       <c r="L17">
-        <v>10.9002635791016</v>
+        <v>9.059646891293559</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.37015324087101</v>
+        <v>12.79152720249813</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.59936215387493</v>
+        <v>18.8574748707326</v>
       </c>
       <c r="C18">
-        <v>8.95829170561473</v>
+        <v>6.83977310540078</v>
       </c>
       <c r="D18">
-        <v>6.242443936247795</v>
+        <v>4.822191994787701</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>31.32511817798564</v>
+        <v>26.71595924198675</v>
       </c>
       <c r="G18">
-        <v>41.08984208950569</v>
+        <v>37.37811499346047</v>
       </c>
       <c r="H18">
-        <v>17.11216627920531</v>
+        <v>11.65059045820526</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.31181948965368</v>
+        <v>14.26977389823854</v>
       </c>
       <c r="L18">
-        <v>10.89063745631911</v>
+        <v>8.983333833557738</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.38449032635722</v>
+        <v>12.84487194369603</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.57711597389454</v>
+        <v>18.77243894926216</v>
       </c>
       <c r="C19">
-        <v>8.957349566455886</v>
+        <v>6.836533449658479</v>
       </c>
       <c r="D19">
-        <v>6.241363446900599</v>
+        <v>4.81998900544345</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>31.31858318937489</v>
+        <v>26.65328531570935</v>
       </c>
       <c r="G19">
-        <v>41.07780585770463</v>
+        <v>37.28387274356928</v>
       </c>
       <c r="H19">
-        <v>17.11385825860028</v>
+        <v>11.64197518753576</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.29659144419809</v>
+        <v>14.20914751613937</v>
       </c>
       <c r="L19">
-        <v>10.88741346549656</v>
+        <v>8.957464152863913</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.38937580268579</v>
+        <v>12.86298646188037</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.67721150718644</v>
+        <v>19.15275564068537</v>
       </c>
       <c r="C20">
-        <v>8.961584127835099</v>
+        <v>6.851121592661853</v>
       </c>
       <c r="D20">
-        <v>6.246211785289067</v>
+        <v>4.829872213106335</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>31.34849603634611</v>
+        <v>26.93606239960382</v>
       </c>
       <c r="G20">
-        <v>41.13270359428017</v>
+        <v>37.70912315452941</v>
       </c>
       <c r="H20">
-        <v>17.10644119547385</v>
+        <v>11.68136997610862</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.36511777954559</v>
+        <v>14.48029252732294</v>
       </c>
       <c r="L20">
-        <v>10.90206185607907</v>
+        <v>9.07375543407437</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.36751457507101</v>
+        <v>12.78167936467378</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.01293149361258</v>
+        <v>20.38972962170888</v>
       </c>
       <c r="C21">
-        <v>8.975719664435628</v>
+        <v>6.900313074466722</v>
       </c>
       <c r="D21">
-        <v>6.262254873952831</v>
+        <v>4.86252646033719</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>31.4577815275293</v>
+        <v>27.89872131814772</v>
       </c>
       <c r="G21">
-        <v>41.32988904928153</v>
+        <v>39.1575609149016</v>
       </c>
       <c r="H21">
-        <v>17.08497105230607</v>
+        <v>11.8249318394322</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.59511034689228</v>
+        <v>15.36213642112417</v>
       </c>
       <c r="L21">
-        <v>10.95370246343111</v>
+        <v>9.46208007804626</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>20.29622949080149</v>
+        <v>12.51214883054496</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.23151614153889</v>
+        <v>21.16819013899203</v>
       </c>
       <c r="C22">
-        <v>8.984887608326362</v>
+        <v>6.932613679799503</v>
       </c>
       <c r="D22">
-        <v>6.272553770236948</v>
+        <v>4.883433996793069</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>31.53568712096689</v>
+        <v>28.53688432054211</v>
       </c>
       <c r="G22">
-        <v>41.46812789862395</v>
+        <v>40.11837074778575</v>
       </c>
       <c r="H22">
-        <v>17.07351269743915</v>
+        <v>11.92742274617308</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.74497967223779</v>
+        <v>15.9170446540673</v>
       </c>
       <c r="L22">
-        <v>10.98922488254108</v>
+        <v>9.71386700188774</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>20.25125027768821</v>
+        <v>12.33868655318467</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.11495369298503</v>
+        <v>20.75542267856559</v>
       </c>
       <c r="C23">
-        <v>8.980001070359419</v>
+        <v>6.915359075597697</v>
       </c>
       <c r="D23">
-        <v>6.267074242137349</v>
+        <v>4.872316411077302</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>31.49351879877965</v>
+        <v>28.19548001404051</v>
       </c>
       <c r="G23">
-        <v>41.39349869852795</v>
+        <v>39.6042970884987</v>
       </c>
       <c r="H23">
-        <v>17.07939263160949</v>
+        <v>11.87190817431873</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.66504865222546</v>
+        <v>15.62281944792183</v>
       </c>
       <c r="L23">
-        <v>10.97010601064638</v>
+        <v>9.579679286265602</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>20.27510951975506</v>
+        <v>12.43102183570836</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.67171593495422</v>
+        <v>19.13202523016801</v>
       </c>
       <c r="C24">
-        <v>8.961351927349389</v>
+        <v>6.850319858279522</v>
       </c>
       <c r="D24">
-        <v>6.245946459655029</v>
+        <v>4.829331494253361</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>31.34682017208896</v>
+        <v>26.9204853271711</v>
       </c>
       <c r="G24">
-        <v>41.12964065485961</v>
+        <v>37.68569507637933</v>
       </c>
       <c r="H24">
-        <v>17.10683553176984</v>
+        <v>11.67916527106461</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.36135489319101</v>
+        <v>14.46551301447631</v>
       </c>
       <c r="L24">
-        <v>10.90124823263696</v>
+        <v>9.067377663289275</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.36870693070652</v>
+        <v>12.78613054149264</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.192620054445</v>
+        <v>17.24932402324507</v>
       </c>
       <c r="C25">
-        <v>8.940945386051881</v>
+        <v>6.780698154956048</v>
       </c>
       <c r="D25">
-        <v>6.22237252206478</v>
+        <v>4.781247337898381</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>31.21680483628908</v>
+        <v>25.58639561735237</v>
       </c>
       <c r="G25">
-        <v>40.88602109189537</v>
+        <v>35.68045091514257</v>
       </c>
       <c r="H25">
-        <v>17.14747102295115</v>
+        <v>11.50640662308469</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.0335724448885</v>
+        <v>13.12323218938443</v>
       </c>
       <c r="L25">
-        <v>10.8347996427775</v>
+        <v>8.507721532414344</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>20.47660683434466</v>
+        <v>13.18094259661198</v>
       </c>
       <c r="O25">
         <v>0</v>
